--- a/hidden-results/council-workbook.xlsx
+++ b/hidden-results/council-workbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="23260" yWindow="2720" windowWidth="27280" windowHeight="19480" tabRatio="500"/>
+    <workbookView xWindow="21420" yWindow="3140" windowWidth="27280" windowHeight="19480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -319,8 +319,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -385,7 +393,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="67">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -415,6 +423,10 @@
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -444,6 +456,10 @@
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -776,7 +792,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection sqref="A1:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -818,10 +834,10 @@
         <v>15</v>
       </c>
       <c r="E2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1234567</v>
+        <v>0</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -841,10 +857,10 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>123456</v>
+        <v>0</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -864,10 +880,10 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>12345</v>
+        <v>0</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -887,10 +903,10 @@
         <v>13</v>
       </c>
       <c r="E5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1234</v>
+        <v>0</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -913,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -933,10 +949,10 @@
         <v>9</v>
       </c>
       <c r="E7">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>12345</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -956,10 +972,10 @@
         <v>13</v>
       </c>
       <c r="E8">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -979,10 +995,10 @@
         <v>9</v>
       </c>
       <c r="E9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>123678</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -1002,10 +1018,10 @@
         <v>13</v>
       </c>
       <c r="E10">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -1025,10 +1041,10 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>56789</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -1048,10 +1064,10 @@
         <v>14</v>
       </c>
       <c r="E12">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -1071,10 +1087,10 @@
         <v>13</v>
       </c>
       <c r="E13">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>469</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -1094,10 +1110,10 @@
         <v>9</v>
       </c>
       <c r="E14">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -1117,10 +1133,10 @@
         <v>9</v>
       </c>
       <c r="E15">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>56789</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -1140,13 +1156,13 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>987</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1163,12 +1179,12 @@
         <v>9</v>
       </c>
       <c r="E17">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>345</v>
-      </c>
-      <c r="G17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1186,12 +1202,12 @@
         <v>13</v>
       </c>
       <c r="E18">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>567</v>
-      </c>
-      <c r="G18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1209,12 +1225,12 @@
         <v>15</v>
       </c>
       <c r="E19">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>765</v>
-      </c>
-      <c r="G19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1232,10 +1248,10 @@
         <v>13</v>
       </c>
       <c r="E20">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>51756</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -1255,10 +1271,10 @@
         <v>9</v>
       </c>
       <c r="E21">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>434433</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -1278,12 +1294,12 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>434343</v>
-      </c>
-      <c r="G22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1301,12 +1317,12 @@
         <v>13</v>
       </c>
       <c r="E23">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>434343</v>
-      </c>
-      <c r="G23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1324,12 +1340,12 @@
         <v>14</v>
       </c>
       <c r="E24">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>434</v>
-      </c>
-      <c r="G24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1347,12 +1363,12 @@
         <v>13</v>
       </c>
       <c r="E25">
-        <v>0.56000000000000005</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>7658</v>
-      </c>
-      <c r="G25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1370,12 +1386,12 @@
         <v>9</v>
       </c>
       <c r="E26">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>874678</v>
-      </c>
-      <c r="G26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1393,13 +1409,13 @@
         <v>15</v>
       </c>
       <c r="E27">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>232323</v>
-      </c>
-      <c r="G27" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1416,12 +1432,12 @@
         <v>14</v>
       </c>
       <c r="E28">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>4564</v>
-      </c>
-      <c r="G28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1439,12 +1455,12 @@
         <v>15</v>
       </c>
       <c r="E29">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>5456</v>
-      </c>
-      <c r="G29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1462,12 +1478,12 @@
         <v>9</v>
       </c>
       <c r="E30">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>5455</v>
-      </c>
-      <c r="G30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1485,12 +1501,12 @@
         <v>13</v>
       </c>
       <c r="E31">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>45454</v>
-      </c>
-      <c r="G31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1508,12 +1524,12 @@
         <v>9</v>
       </c>
       <c r="E32">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>45454</v>
-      </c>
-      <c r="G32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1531,12 +1547,12 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>6666</v>
-      </c>
-      <c r="G33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1554,12 +1570,12 @@
         <v>15</v>
       </c>
       <c r="E34">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>443</v>
-      </c>
-      <c r="G34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="b">
         <v>0</v>
       </c>
     </row>
